--- a/Check.xlsx
+++ b/Check.xlsx
@@ -663,7 +663,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="17.13"/>
-    <col customWidth="1" min="2" max="2" width="29.0"/>
+    <col customWidth="1" min="2" max="2" width="33.63"/>
     <col customWidth="1" min="3" max="3" width="15.0"/>
     <col customWidth="1" min="4" max="4" width="14.5"/>
     <col customWidth="1" min="5" max="5" width="13.63"/>
@@ -686,7 +686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="22.5" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -701,7 +701,7 @@
       </c>
       <c r="E2" s="8"/>
     </row>
-    <row r="3">
+    <row r="3" ht="25.5" customHeight="1">
       <c r="A3" s="9"/>
       <c r="B3" s="10" t="s">
         <v>9</v>
@@ -714,7 +714,7 @@
       </c>
       <c r="E3" s="11"/>
     </row>
-    <row r="4">
+    <row r="4" ht="32.25" customHeight="1">
       <c r="A4" s="9"/>
       <c r="B4" s="10" t="s">
         <v>10</v>
@@ -727,7 +727,7 @@
       </c>
       <c r="E4" s="11"/>
     </row>
-    <row r="5">
+    <row r="5" ht="32.25" customHeight="1">
       <c r="A5" s="9"/>
       <c r="B5" s="10" t="s">
         <v>11</v>
@@ -740,7 +740,7 @@
       </c>
       <c r="E5" s="11"/>
     </row>
-    <row r="6">
+    <row r="6" ht="37.5" customHeight="1">
       <c r="A6" s="12"/>
       <c r="B6" s="13" t="s">
         <v>12</v>
@@ -753,7 +753,7 @@
       </c>
       <c r="E6" s="14"/>
     </row>
-    <row r="7">
+    <row r="7" ht="28.5" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -768,7 +768,7 @@
       </c>
       <c r="E7" s="8"/>
     </row>
-    <row r="8">
+    <row r="8" ht="27.75" customHeight="1">
       <c r="A8" s="9"/>
       <c r="B8" s="10" t="s">
         <v>15</v>
@@ -781,7 +781,7 @@
       </c>
       <c r="E8" s="11"/>
     </row>
-    <row r="9">
+    <row r="9" ht="33.75" customHeight="1">
       <c r="A9" s="12"/>
       <c r="B9" s="13" t="s">
         <v>16</v>
@@ -794,7 +794,7 @@
       </c>
       <c r="E9" s="14"/>
     </row>
-    <row r="10">
+    <row r="10" ht="28.5" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
@@ -809,7 +809,7 @@
       </c>
       <c r="E10" s="8"/>
     </row>
-    <row r="11">
+    <row r="11" ht="27.75" customHeight="1">
       <c r="A11" s="9"/>
       <c r="B11" s="10" t="s">
         <v>19</v>
@@ -822,7 +822,7 @@
       </c>
       <c r="E11" s="11"/>
     </row>
-    <row r="12">
+    <row r="12" ht="37.5" customHeight="1">
       <c r="A12" s="12"/>
       <c r="B12" s="13" t="s">
         <v>20</v>
@@ -835,7 +835,7 @@
       </c>
       <c r="E12" s="14"/>
     </row>
-    <row r="13">
+    <row r="13" ht="42.75" customHeight="1">
       <c r="A13" s="15" t="s">
         <v>21</v>
       </c>
@@ -850,7 +850,7 @@
       </c>
       <c r="E13" s="8"/>
     </row>
-    <row r="14">
+    <row r="14" ht="23.25" customHeight="1">
       <c r="A14" s="9"/>
       <c r="B14" s="10" t="s">
         <v>24</v>
@@ -863,7 +863,7 @@
       </c>
       <c r="E14" s="11"/>
     </row>
-    <row r="15">
+    <row r="15" ht="27.75" customHeight="1">
       <c r="A15" s="9"/>
       <c r="B15" s="10" t="s">
         <v>25</v>
@@ -876,7 +876,7 @@
       </c>
       <c r="E15" s="11"/>
     </row>
-    <row r="16">
+    <row r="16" ht="41.25" customHeight="1">
       <c r="A16" s="9"/>
       <c r="B16" s="10" t="s">
         <v>26</v>
@@ -889,7 +889,7 @@
       </c>
       <c r="E16" s="11"/>
     </row>
-    <row r="17">
+    <row r="17" ht="42.0" customHeight="1">
       <c r="A17" s="9"/>
       <c r="B17" s="10" t="s">
         <v>27</v>
@@ -902,7 +902,7 @@
       </c>
       <c r="E17" s="11"/>
     </row>
-    <row r="18">
+    <row r="18" ht="38.25" customHeight="1">
       <c r="A18" s="9"/>
       <c r="B18" s="10" t="s">
         <v>28</v>
@@ -915,7 +915,7 @@
       </c>
       <c r="E18" s="11"/>
     </row>
-    <row r="19">
+    <row r="19" ht="27.75" customHeight="1">
       <c r="A19" s="9"/>
       <c r="B19" s="10" t="s">
         <v>29</v>
@@ -928,7 +928,7 @@
       </c>
       <c r="E19" s="11"/>
     </row>
-    <row r="20">
+    <row r="20" ht="39.75" customHeight="1">
       <c r="A20" s="9"/>
       <c r="B20" s="10" t="s">
         <v>22</v>
@@ -941,7 +941,7 @@
       </c>
       <c r="E20" s="11"/>
     </row>
-    <row r="21">
+    <row r="21" ht="36.75" customHeight="1">
       <c r="A21" s="9"/>
       <c r="B21" s="10" t="s">
         <v>24</v>
@@ -954,7 +954,7 @@
       </c>
       <c r="E21" s="11"/>
     </row>
-    <row r="22">
+    <row r="22" ht="30.0" customHeight="1">
       <c r="A22" s="9"/>
       <c r="B22" s="10" t="s">
         <v>25</v>
@@ -967,7 +967,7 @@
       </c>
       <c r="E22" s="11"/>
     </row>
-    <row r="23">
+    <row r="23" ht="38.25" customHeight="1">
       <c r="A23" s="9"/>
       <c r="B23" s="10" t="s">
         <v>26</v>
@@ -980,7 +980,7 @@
       </c>
       <c r="E23" s="11"/>
     </row>
-    <row r="24">
+    <row r="24" ht="39.0" customHeight="1">
       <c r="A24" s="9"/>
       <c r="B24" s="10" t="s">
         <v>27</v>
@@ -993,7 +993,7 @@
       </c>
       <c r="E24" s="11"/>
     </row>
-    <row r="25">
+    <row r="25" ht="33.0" customHeight="1">
       <c r="A25" s="9"/>
       <c r="B25" s="10" t="s">
         <v>30</v>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="E25" s="11"/>
     </row>
-    <row r="26">
+    <row r="26" ht="33.75" customHeight="1">
       <c r="A26" s="9"/>
       <c r="B26" s="10" t="s">
         <v>31</v>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="E26" s="11"/>
     </row>
-    <row r="27">
+    <row r="27" ht="45.75" customHeight="1">
       <c r="A27" s="9"/>
       <c r="B27" s="10" t="s">
         <v>28</v>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="E27" s="11"/>
     </row>
-    <row r="28">
+    <row r="28" ht="33.0" customHeight="1">
       <c r="A28" s="9"/>
       <c r="B28" s="10" t="s">
         <v>32</v>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="E28" s="11"/>
     </row>
-    <row r="29">
+    <row r="29" ht="31.5" customHeight="1">
       <c r="A29" s="9"/>
       <c r="B29" s="10" t="s">
         <v>33</v>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="E29" s="11"/>
     </row>
-    <row r="30">
+    <row r="30" ht="25.5" customHeight="1">
       <c r="A30" s="9"/>
       <c r="B30" s="10" t="s">
         <v>34</v>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="E30" s="11"/>
     </row>
-    <row r="31">
+    <row r="31" ht="30.0" customHeight="1">
       <c r="A31" s="9"/>
       <c r="B31" s="10" t="s">
         <v>35</v>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="E31" s="11"/>
     </row>
-    <row r="32">
+    <row r="32" ht="28.5" customHeight="1">
       <c r="A32" s="9"/>
       <c r="B32" s="10" t="s">
         <v>36</v>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="E32" s="11"/>
     </row>
-    <row r="33">
+    <row r="33" ht="31.5" customHeight="1">
       <c r="A33" s="9"/>
       <c r="B33" s="10" t="s">
         <v>37</v>
@@ -1110,7 +1110,7 @@
       </c>
       <c r="E33" s="11"/>
     </row>
-    <row r="34">
+    <row r="34" ht="42.0" customHeight="1">
       <c r="A34" s="9"/>
       <c r="B34" s="10" t="s">
         <v>38</v>
@@ -1123,7 +1123,7 @@
       </c>
       <c r="E34" s="11"/>
     </row>
-    <row r="35">
+    <row r="35" ht="30.0" customHeight="1">
       <c r="A35" s="9"/>
       <c r="B35" s="10" t="s">
         <v>39</v>
@@ -1136,7 +1136,7 @@
       </c>
       <c r="E35" s="11"/>
     </row>
-    <row r="36">
+    <row r="36" ht="41.25" customHeight="1">
       <c r="A36" s="9"/>
       <c r="B36" s="10" t="s">
         <v>40</v>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="E36" s="11"/>
     </row>
-    <row r="37">
+    <row r="37" ht="41.25" customHeight="1">
       <c r="A37" s="9"/>
       <c r="B37" s="10" t="s">
         <v>41</v>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="E37" s="11"/>
     </row>
-    <row r="38">
+    <row r="38" ht="24.75" customHeight="1">
       <c r="A38" s="9"/>
       <c r="B38" s="10" t="s">
         <v>42</v>
@@ -1175,7 +1175,7 @@
       </c>
       <c r="E38" s="11"/>
     </row>
-    <row r="39">
+    <row r="39" ht="25.5" customHeight="1">
       <c r="A39" s="9"/>
       <c r="B39" s="10" t="s">
         <v>43</v>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40">
+    <row r="40" ht="23.25" customHeight="1">
       <c r="A40" s="9"/>
       <c r="B40" s="10" t="s">
         <v>44</v>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="E40" s="11"/>
     </row>
-    <row r="41">
+    <row r="41" ht="24.75" customHeight="1">
       <c r="A41" s="9"/>
       <c r="B41" s="10" t="s">
         <v>45</v>
@@ -1214,7 +1214,7 @@
       </c>
       <c r="E41" s="11"/>
     </row>
-    <row r="42">
+    <row r="42" ht="27.75" customHeight="1">
       <c r="A42" s="9"/>
       <c r="B42" s="10" t="s">
         <v>46</v>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="E42" s="11"/>
     </row>
-    <row r="43">
+    <row r="43" ht="30.75" customHeight="1">
       <c r="A43" s="9"/>
       <c r="B43" s="10" t="s">
         <v>47</v>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="E43" s="11"/>
     </row>
-    <row r="44">
+    <row r="44" ht="45.75" customHeight="1">
       <c r="A44" s="12"/>
       <c r="B44" s="13" t="s">
         <v>48</v>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="E44" s="14"/>
     </row>
-    <row r="45">
+    <row r="45" ht="28.5" customHeight="1">
       <c r="A45" s="6" t="s">
         <v>49</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" ht="25.5" customHeight="1">
       <c r="A48" s="12"/>
       <c r="B48" s="13" t="s">
         <v>55</v>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="E48" s="14"/>
     </row>
-    <row r="49">
+    <row r="49" ht="32.25" customHeight="1">
       <c r="A49" s="6" t="s">
         <v>56</v>
       </c>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="E49" s="8"/>
     </row>
-    <row r="50">
+    <row r="50" ht="36.0" customHeight="1">
       <c r="A50" s="9"/>
       <c r="B50" s="10" t="s">
         <v>57</v>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="E50" s="11"/>
     </row>
-    <row r="51">
+    <row r="51" ht="39.75" customHeight="1">
       <c r="A51" s="9"/>
       <c r="B51" s="10" t="s">
         <v>58</v>
@@ -1352,7 +1352,7 @@
       </c>
       <c r="E51" s="11"/>
     </row>
-    <row r="52">
+    <row r="52" ht="36.75" customHeight="1">
       <c r="A52" s="12"/>
       <c r="B52" s="13" t="s">
         <v>59</v>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="E52" s="14"/>
     </row>
-    <row r="53">
+    <row r="53" ht="37.5" customHeight="1">
       <c r="A53" s="6" t="s">
         <v>60</v>
       </c>
@@ -1380,7 +1380,7 @@
       </c>
       <c r="E53" s="8"/>
     </row>
-    <row r="54">
+    <row r="54" ht="36.75" customHeight="1">
       <c r="A54" s="12"/>
       <c r="B54" s="13" t="s">
         <v>62</v>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="E54" s="14"/>
     </row>
-    <row r="55">
+    <row r="55" ht="26.25" customHeight="1">
       <c r="A55" s="6" t="s">
         <v>63</v>
       </c>
@@ -1408,7 +1408,7 @@
       </c>
       <c r="E55" s="8"/>
     </row>
-    <row r="56">
+    <row r="56" ht="53.25" customHeight="1">
       <c r="A56" s="12"/>
       <c r="B56" s="13" t="s">
         <v>65</v>
